--- a/Doc/Introduction of scripts.xlsx
+++ b/Doc/Introduction of scripts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/MATLAB/Code/PcLactis_Matlab/Doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D584E71-B8DF-6841-86B8-A0C1B0FB9270}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA01E60-280B-1043-AFEF-4869BBC9D655}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="460" windowWidth="38400" windowHeight="17540" xr2:uid="{0FFD0C4E-5C5A-ED44-A6A6-C6DCFB753CCD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27760" windowHeight="17540" xr2:uid="{0FFD0C4E-5C5A-ED44-A6A6-C6DCFB753CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Model files; already calculated flux distribution</t>
   </si>
   <si>
-    <t>~ 110</t>
-  </si>
-  <si>
     <t>Simulated flux distributions for different growth rates without and with global saturation factors; figures</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Figures</t>
+  </si>
+  <si>
+    <t>~ 200</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -694,16 +694,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -731,10 +731,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
@@ -743,7 +743,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -751,10 +751,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>19</v>
@@ -783,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
@@ -791,10 +791,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>19</v>
@@ -811,19 +811,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.2">
@@ -831,41 +831,41 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="40" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>28</v>
@@ -874,7 +874,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>10</v>

--- a/Doc/Introduction of scripts.xlsx
+++ b/Doc/Introduction of scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA01E60-280B-1043-AFEF-4869BBC9D655}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED940EF-0731-DF46-B1CE-3D8710995E64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27760" windowHeight="17540" xr2:uid="{0FFD0C4E-5C5A-ED44-A6A6-C6DCFB753CCD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>Startme.m</t>
   </si>
@@ -120,9 +120,6 @@
     <t>~ 150</t>
   </si>
   <si>
-    <t>This script can be used to calculate the proteome allocation with already calculated flux distribution.</t>
-  </si>
-  <si>
     <t>Model files; already calculated flux distribution</t>
   </si>
   <si>
@@ -202,6 +199,15 @@
   </si>
   <si>
     <t>~ 200</t>
+  </si>
+  <si>
+    <t>Calculate_proteome_allocation.m</t>
+  </si>
+  <si>
+    <t>This script can be used to calculate changes with already calculated flux distribution.</t>
+  </si>
+  <si>
+    <t>This script can be used to calculate the proteome allocation with already calculated flux distribution based on experimental exchange rates.</t>
   </si>
 </sst>
 </file>
@@ -591,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D45D428-CA4E-4948-89CA-A65251EA36DA}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -694,16 +700,16 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -731,10 +737,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
@@ -743,7 +749,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -751,10 +757,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
@@ -771,10 +777,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>19</v>
@@ -783,7 +789,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.2">
@@ -791,10 +797,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>19</v>
@@ -811,19 +817,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.2">
@@ -831,52 +837,69 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="40" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>10</v>
       </c>
     </row>
